--- a/data/Nueva Imperial.xlsx
+++ b/data/Nueva Imperial.xlsx
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS SANITARIOS DE LA ARAUCANIA S.A.</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F52" t="n">
